--- a/data/financial_statements/sofp/CHD.xlsx
+++ b/data/financial_statements/sofp/CHD.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,141 +598,141 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>437600000</v>
+        <v>438000000</v>
       </c>
       <c r="C2">
-        <v>639700000</v>
+        <v>640000000</v>
       </c>
       <c r="D2">
-        <v>174400000</v>
+        <v>174000000</v>
       </c>
       <c r="E2">
-        <v>240600000</v>
+        <v>241000000</v>
       </c>
       <c r="F2">
         <v>180000000</v>
@@ -730,20 +841,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>391300000</v>
+        <v>391000000</v>
       </c>
       <c r="C3">
-        <v>405800000</v>
+        <v>406000000</v>
       </c>
       <c r="D3">
-        <v>407100000</v>
+        <v>407000000</v>
       </c>
       <c r="E3">
-        <v>405500000</v>
+        <v>406000000</v>
       </c>
       <c r="F3">
         <v>407000000</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>675300000</v>
+        <v>675000000</v>
       </c>
       <c r="C4">
         <v>663000000</v>
       </c>
       <c r="D4">
-        <v>598800000</v>
+        <v>599000000</v>
       </c>
       <c r="E4">
-        <v>535400000</v>
+        <v>535000000</v>
       </c>
       <c r="F4">
-        <v>552700000</v>
+        <v>553000000</v>
       </c>
       <c r="G4">
         <v>555800000</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>60200000</v>
+        <v>60000000</v>
       </c>
       <c r="C5">
-        <v>42200000</v>
+        <v>42000000</v>
       </c>
       <c r="D5">
-        <v>41500000</v>
+        <v>42000000</v>
       </c>
       <c r="E5">
-        <v>51900000</v>
+        <v>52000000</v>
       </c>
       <c r="F5">
-        <v>37100000</v>
+        <v>37000000</v>
       </c>
       <c r="G5">
         <v>36900000</v>
@@ -1096,23 +1207,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1564400000</v>
+        <v>1564000000</v>
       </c>
       <c r="C6">
-        <v>1750700000</v>
+        <v>1751000000</v>
       </c>
       <c r="D6">
-        <v>1221800000</v>
+        <v>1222000000</v>
       </c>
       <c r="E6">
-        <v>1233400000</v>
+        <v>1233000000</v>
       </c>
       <c r="F6">
-        <v>1176800000</v>
+        <v>1177000000</v>
       </c>
       <c r="G6">
         <v>1128700000</v>
@@ -1218,23 +1329,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>716300000</v>
+        <v>883000000</v>
       </c>
       <c r="C7">
-        <v>660600000</v>
+        <v>824000000</v>
       </c>
       <c r="D7">
-        <v>653200000</v>
+        <v>808000000</v>
       </c>
       <c r="E7">
-        <v>652700000</v>
+        <v>812000000</v>
       </c>
       <c r="F7">
-        <v>615800000</v>
+        <v>783000000</v>
       </c>
       <c r="G7">
         <v>613000000</v>
@@ -1340,20 +1451,20 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>11900000</v>
+        <v>12000000</v>
       </c>
       <c r="C8">
-        <v>12200000</v>
+        <v>12000000</v>
       </c>
       <c r="D8">
-        <v>10800000</v>
+        <v>11000000</v>
       </c>
       <c r="E8">
-        <v>9100000</v>
+        <v>9000000</v>
       </c>
       <c r="F8">
         <v>9000000</v>
@@ -1462,23 +1573,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>5674800000</v>
+        <v>5675000000</v>
       </c>
       <c r="C9">
-        <v>5705300000</v>
+        <v>5705000000</v>
       </c>
       <c r="D9">
-        <v>5738500000</v>
+        <v>5739000000</v>
       </c>
       <c r="E9">
-        <v>5768800000</v>
+        <v>5769000000</v>
       </c>
       <c r="F9">
-        <v>5249400000</v>
+        <v>5249000000</v>
       </c>
       <c r="G9">
         <v>5279000000</v>
@@ -1584,23 +1695,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>320400000</v>
+        <v>154000000</v>
       </c>
       <c r="C10">
-        <v>316000000</v>
+        <v>152000000</v>
       </c>
       <c r="D10">
-        <v>316900000</v>
+        <v>163000000</v>
       </c>
       <c r="E10">
-        <v>332500000</v>
+        <v>173000000</v>
       </c>
       <c r="F10">
-        <v>331000000</v>
+        <v>164000000</v>
       </c>
       <c r="G10">
         <v>337900000</v>
@@ -1706,8 +1817,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>6723400000</v>
@@ -1828,20 +1939,20 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>8287800000</v>
+        <v>8288000000</v>
       </c>
       <c r="C12">
-        <v>8444800000</v>
+        <v>8445000000</v>
       </c>
       <c r="D12">
-        <v>7941200000</v>
+        <v>7941000000</v>
       </c>
       <c r="E12">
-        <v>7996500000</v>
+        <v>7997000000</v>
       </c>
       <c r="F12">
         <v>7382000000</v>
@@ -1950,23 +2061,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>1032000000</v>
+        <v>656000000</v>
       </c>
       <c r="C13">
-        <v>1016400000</v>
+        <v>667000000</v>
       </c>
       <c r="D13">
-        <v>1009200000</v>
+        <v>655000000</v>
       </c>
       <c r="E13">
-        <v>1119700000</v>
+        <v>664000000</v>
       </c>
       <c r="F13">
-        <v>997700000</v>
+        <v>618000000</v>
       </c>
       <c r="G13">
         <v>887500000</v>
@@ -2072,23 +2183,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>403300000</v>
+        <v>426000000</v>
       </c>
       <c r="C14">
-        <v>703200000</v>
+        <v>726000000</v>
       </c>
       <c r="D14">
-        <v>802700000</v>
+        <v>826000000</v>
       </c>
       <c r="E14">
-        <v>952200000</v>
+        <v>977000000</v>
       </c>
       <c r="F14">
-        <v>579300000</v>
+        <v>604000000</v>
       </c>
       <c r="G14">
         <v>433100000</v>
@@ -2194,8 +2305,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>15300000</v>
@@ -2316,8 +2427,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>354000000</v>
@@ -2357,23 +2468,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1450600000</v>
+        <v>1451000000</v>
       </c>
       <c r="C17">
-        <v>1726800000</v>
+        <v>1727000000</v>
       </c>
       <c r="D17">
-        <v>1871600000</v>
+        <v>1872000000</v>
       </c>
       <c r="E17">
-        <v>2075200000</v>
+        <v>2075000000</v>
       </c>
       <c r="F17">
-        <v>1584400000</v>
+        <v>1584000000</v>
       </c>
       <c r="G17">
         <v>1376100000</v>
@@ -2479,23 +2590,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2104400000</v>
+        <v>2260000000</v>
       </c>
       <c r="C18">
-        <v>2103900000</v>
+        <v>2257000000</v>
       </c>
       <c r="D18">
-        <v>1611200000</v>
+        <v>1754000000</v>
       </c>
       <c r="E18">
-        <v>1610700000</v>
+        <v>1757000000</v>
       </c>
       <c r="F18">
-        <v>1214800000</v>
+        <v>1368000000</v>
       </c>
       <c r="G18">
         <v>1513800000</v>
@@ -2601,8 +2712,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>738900000</v>
@@ -2681,8 +2792,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>739000000</v>
@@ -2697,7 +2808,7 @@
         <v>745000000</v>
       </c>
       <c r="F20">
-        <v>747700000</v>
+        <v>748000000</v>
       </c>
       <c r="G20">
         <v>732000000</v>
@@ -2803,23 +2914,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>306100000</v>
+        <v>151000000</v>
       </c>
       <c r="C21">
-        <v>312800000</v>
+        <v>160000000</v>
       </c>
       <c r="D21">
-        <v>317500000</v>
+        <v>175000000</v>
       </c>
       <c r="E21">
-        <v>332300000</v>
+        <v>186000000</v>
       </c>
       <c r="F21">
-        <v>321500000</v>
+        <v>168000000</v>
       </c>
       <c r="G21">
         <v>369100000</v>
@@ -2925,8 +3036,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>3149400000</v>
@@ -3047,23 +3158,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>4600000000</v>
       </c>
       <c r="C23">
-        <v>4890400000</v>
+        <v>4890000000</v>
       </c>
       <c r="D23">
-        <v>4538300000</v>
+        <v>4538000000</v>
       </c>
       <c r="E23">
-        <v>4763300000</v>
+        <v>4763000000</v>
       </c>
       <c r="F23">
-        <v>3868400000</v>
+        <v>3868000000</v>
       </c>
       <c r="G23">
         <v>3991300000</v>
@@ -3169,8 +3280,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>355900000</v>
@@ -3291,23 +3402,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>292800000</v>
+        <v>293000000</v>
       </c>
       <c r="C25">
-        <v>292800000</v>
+        <v>293000000</v>
       </c>
       <c r="D25">
-        <v>292800000</v>
+        <v>293000000</v>
       </c>
       <c r="E25">
-        <v>292800000</v>
+        <v>293000000</v>
       </c>
       <c r="F25">
-        <v>292800000</v>
+        <v>293000000</v>
       </c>
       <c r="G25">
         <v>292800000</v>
@@ -3413,23 +3524,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>5753400000</v>
+        <v>5753000000</v>
       </c>
       <c r="C26">
-        <v>5630100000</v>
+        <v>5630000000</v>
       </c>
       <c r="D26">
-        <v>5506700000</v>
+        <v>5507000000</v>
       </c>
       <c r="E26">
         <v>5366000000</v>
       </c>
       <c r="F26">
-        <v>5269600000</v>
+        <v>5270000000</v>
       </c>
       <c r="G26">
         <v>5101200000</v>
@@ -3535,8 +3646,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2668200000</v>
@@ -3657,23 +3768,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3687800000</v>
+        <v>3688000000</v>
       </c>
       <c r="C28">
-        <v>3554400000</v>
+        <v>3554000000</v>
       </c>
       <c r="D28">
-        <v>3402900000</v>
+        <v>3403000000</v>
       </c>
       <c r="E28">
-        <v>3233200000</v>
+        <v>3233000000</v>
       </c>
       <c r="F28">
-        <v>3513600000</v>
+        <v>3514000000</v>
       </c>
       <c r="G28">
         <v>3377200000</v>
@@ -3779,23 +3890,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>3687800000</v>
+        <v>3688000000</v>
       </c>
       <c r="C29">
-        <v>3554400000</v>
+        <v>3554000000</v>
       </c>
       <c r="D29">
-        <v>3402900000</v>
+        <v>3403000000</v>
       </c>
       <c r="E29">
-        <v>3233200000</v>
+        <v>3233000000</v>
       </c>
       <c r="F29">
-        <v>3513600000</v>
+        <v>3514000000</v>
       </c>
       <c r="G29">
         <v>3377200000</v>
@@ -3901,8 +4012,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>8287800000</v>
@@ -4023,8 +4134,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>242959000</v>
@@ -4145,8 +4256,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-1987000000</v>
@@ -4267,23 +4378,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>2070100000</v>
+        <v>2248000000</v>
       </c>
       <c r="C33">
-        <v>2167400000</v>
+        <v>2343000000</v>
       </c>
       <c r="D33">
-        <v>2239500000</v>
+        <v>2406000000</v>
       </c>
       <c r="E33">
-        <v>2322300000</v>
+        <v>2493000000</v>
       </c>
       <c r="F33">
-        <v>1614100000</v>
+        <v>1792000000</v>
       </c>
       <c r="G33">
         <v>1797100000</v>
@@ -4389,23 +4500,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>2507700000</v>
+        <v>2686000000</v>
       </c>
       <c r="C34">
-        <v>2807100000</v>
+        <v>2983000000</v>
       </c>
       <c r="D34">
-        <v>2413900000</v>
+        <v>2580000000</v>
       </c>
       <c r="E34">
-        <v>2562900000</v>
+        <v>2734000000</v>
       </c>
       <c r="F34">
-        <v>1794100000</v>
+        <v>1972000000</v>
       </c>
       <c r="G34">
         <v>1946900000</v>
